--- a/backtest/w_r_batman_analysis_sunq/w_r_batman_backtest_data_sunq.xlsx
+++ b/backtest/w_r_batman_analysis_sunq/w_r_batman_backtest_data_sunq.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="31">
   <si>
     <t xml:space="preserve">sumPnL </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>profitloss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>freq_used</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,34 @@
     <t>RB1810.SHF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>T1807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NI1807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnl/ntrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnl/ntrade*1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +201,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
@@ -293,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -329,6 +360,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -634,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AN132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8938,84 +8975,354 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="13.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.625" style="22" customWidth="1"/>
+    <col min="7" max="8" width="9" style="22"/>
+    <col min="9" max="9" width="14.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="22">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="22">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="C4" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="O4" s="22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C7" s="24">
+        <v>3349</v>
+      </c>
+      <c r="D7" s="24">
+        <v>3101</v>
+      </c>
+      <c r="E7" s="25">
+        <f>C7/D7</f>
+        <v>1.0799742018703644</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="24">
+        <v>11.4250000000021</v>
+      </c>
+      <c r="H7" s="24">
+        <v>2292</v>
+      </c>
+      <c r="I7" s="25">
+        <f>G7/H7*1000</f>
+        <v>4.984729493892714</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="22">
+        <v>96300</v>
+      </c>
+      <c r="L7" s="22">
+        <v>2921</v>
+      </c>
+      <c r="M7" s="25">
+        <f>K7/L7</f>
+        <v>32.96816158849709</v>
+      </c>
+      <c r="O7" s="22">
+        <v>888.5</v>
+      </c>
+      <c r="P7" s="22">
+        <v>4111</v>
+      </c>
+      <c r="Q7" s="25">
+        <f>O7/P7</f>
+        <v>0.21612746290440282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C8" s="22">
+        <v>1833</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1536</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" ref="E8:E11" si="0">C8/D8</f>
+        <v>1.193359375</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="22">
+        <v>6.1150000000027198</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1084</v>
+      </c>
+      <c r="I8" s="26">
+        <f>G8/H8*1000</f>
+        <v>5.6411439114416231</v>
+      </c>
+      <c r="K8" s="22">
+        <v>60480</v>
+      </c>
+      <c r="L8" s="22">
+        <v>1507</v>
+      </c>
+      <c r="M8" s="26">
+        <f t="shared" ref="M8:M11" si="1">K8/L8</f>
+        <v>40.132714001327138</v>
+      </c>
+      <c r="O8" s="22">
+        <v>546</v>
+      </c>
+      <c r="P8" s="22">
+        <v>1671</v>
+      </c>
+      <c r="Q8" s="26">
+        <f t="shared" ref="Q8:Q11" si="2">O8/P8</f>
+        <v>0.32675044883303411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="C9" s="22">
+        <v>1305</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1054</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>1.2381404174573054</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="22">
+        <v>4.2400000000020697</v>
+      </c>
+      <c r="H9" s="22">
+        <v>670</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" ref="I9:I11" si="3">G9/H9*1000</f>
+        <v>6.3283582089583126</v>
+      </c>
+      <c r="K9" s="22">
+        <v>56400</v>
+      </c>
+      <c r="L9" s="22">
+        <v>1031</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="1"/>
+        <v>54.704170708050434</v>
+      </c>
+      <c r="O9" s="22">
+        <v>412.5</v>
+      </c>
+      <c r="P9" s="22">
+        <v>1038</v>
+      </c>
+      <c r="Q9" s="26">
+        <f t="shared" si="2"/>
+        <v>0.39739884393063585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="C10" s="22">
+        <v>992</v>
+      </c>
+      <c r="D10" s="22">
+        <v>793</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="0"/>
+        <v>1.2509457755359394</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="22">
+        <v>4.3900000000016899</v>
+      </c>
+      <c r="H10" s="22">
+        <v>519</v>
+      </c>
+      <c r="I10" s="26">
+        <f t="shared" si="3"/>
+        <v>8.45857418112079</v>
+      </c>
+      <c r="K10" s="22">
+        <v>41300</v>
+      </c>
+      <c r="L10" s="22">
+        <v>739</v>
+      </c>
+      <c r="M10" s="26">
+        <f t="shared" si="1"/>
+        <v>55.886332882273344</v>
+      </c>
+      <c r="O10" s="22">
+        <v>321.5</v>
+      </c>
+      <c r="P10" s="22">
+        <v>753</v>
+      </c>
+      <c r="Q10" s="26">
+        <f t="shared" si="2"/>
+        <v>0.42695883134130147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="22">
-        <v>3349</v>
-      </c>
-      <c r="C6" s="22">
-        <v>1833</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1305</v>
-      </c>
-      <c r="E6" s="22">
-        <v>992</v>
-      </c>
-      <c r="F6" s="22">
+      <c r="C11" s="22">
         <v>848</v>
       </c>
+      <c r="D11" s="22">
+        <v>644</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" si="0"/>
+        <v>1.3167701863354038</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="22">
+        <v>4.4600000000010303</v>
+      </c>
+      <c r="H11" s="22">
+        <v>403</v>
+      </c>
+      <c r="I11" s="26">
+        <f t="shared" si="3"/>
+        <v>11.066997518612977</v>
+      </c>
+      <c r="K11" s="22">
+        <v>37040</v>
+      </c>
+      <c r="L11" s="22">
+        <v>594</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" si="1"/>
+        <v>62.35690235690236</v>
+      </c>
+      <c r="O11" s="22">
+        <v>342.5</v>
+      </c>
+      <c r="P11" s="22">
+        <v>596</v>
+      </c>
+      <c r="Q11" s="26">
+        <f t="shared" si="2"/>
+        <v>0.57466442953020136</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
